--- a/From_text_GPM_MC_nMonte_100000_N1_Higgins12MoMNo.xlsx
+++ b/From_text_GPM_MC_nMonte_100000_N1_Higgins12MoMNo.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andypchen/MC_sim_2SD/MC_sim_with_2SD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA30578D-BAFA-F941-9358-62285769231A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12160" yWindow="2320" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$59</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>MethodOfMoments</t>
   </si>
@@ -66,12 +88,15 @@
   <si>
     <t>No_MethodOfMoments</t>
   </si>
+  <si>
+    <t>%coverage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,13 +144,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -134,13 +173,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,14 +470,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +520,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -483,34 +538,34 @@
         <v>0.15</v>
       </c>
       <c r="E2">
-        <v>0.94463</v>
+        <v>0.94462999999999997</v>
       </c>
       <c r="F2">
         <v>5537</v>
       </c>
       <c r="G2">
-        <v>0.05537</v>
+        <v>5.5370000000000003E-2</v>
       </c>
       <c r="H2">
         <v>1194</v>
       </c>
       <c r="I2">
-        <v>0.01194</v>
+        <v>1.1939999999999999E-2</v>
       </c>
       <c r="J2">
         <v>2915</v>
       </c>
       <c r="K2">
-        <v>0.02915</v>
+        <v>2.9149999999999999E-2</v>
       </c>
       <c r="L2">
         <v>2664</v>
       </c>
       <c r="M2">
-        <v>0.02664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.664E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -524,34 +579,34 @@
         <v>0.15</v>
       </c>
       <c r="E3">
-        <v>0.94363</v>
+        <v>0.94362999999999997</v>
       </c>
       <c r="F3">
         <v>5637</v>
       </c>
       <c r="G3">
-        <v>0.05637</v>
+        <v>5.6370000000000003E-2</v>
       </c>
       <c r="H3">
         <v>1228</v>
       </c>
       <c r="I3">
-        <v>0.01228</v>
+        <v>1.2279999999999999E-2</v>
       </c>
       <c r="J3">
         <v>2993</v>
       </c>
       <c r="K3">
-        <v>0.02993</v>
+        <v>2.9929999999999998E-2</v>
       </c>
       <c r="L3">
         <v>2689</v>
       </c>
       <c r="M3">
-        <v>0.02689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.6890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -565,34 +620,34 @@
         <v>0.15</v>
       </c>
       <c r="E4">
-        <v>0.94404</v>
+        <v>0.94403999999999999</v>
       </c>
       <c r="F4">
         <v>5596</v>
       </c>
       <c r="G4">
-        <v>0.05596</v>
+        <v>5.5960000000000003E-2</v>
       </c>
       <c r="H4">
         <v>1214</v>
       </c>
       <c r="I4">
-        <v>0.01214</v>
+        <v>1.214E-2</v>
       </c>
       <c r="J4">
         <v>2947</v>
       </c>
       <c r="K4">
-        <v>0.02947</v>
+        <v>2.947E-2</v>
       </c>
       <c r="L4">
         <v>2689</v>
       </c>
       <c r="M4">
-        <v>0.02689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.6890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -606,34 +661,34 @@
         <v>0.15</v>
       </c>
       <c r="E5">
-        <v>0.94997</v>
+        <v>0.94996999999999998</v>
       </c>
       <c r="F5">
         <v>5003</v>
       </c>
       <c r="G5">
-        <v>0.05003</v>
+        <v>5.0029999999999998E-2</v>
       </c>
       <c r="H5">
         <v>1037</v>
       </c>
       <c r="I5">
-        <v>0.01037</v>
+        <v>1.0370000000000001E-2</v>
       </c>
       <c r="J5">
         <v>2597</v>
       </c>
       <c r="K5">
-        <v>0.02597</v>
+        <v>2.597E-2</v>
       </c>
       <c r="L5">
         <v>2446</v>
       </c>
       <c r="M5">
-        <v>0.02446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.4459999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -647,34 +702,34 @@
         <v>0.3</v>
       </c>
       <c r="E6">
-        <v>0.9386</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="F6">
         <v>6140</v>
       </c>
       <c r="G6">
-        <v>0.0614</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="H6">
         <v>1370</v>
       </c>
       <c r="I6">
-        <v>0.0137</v>
+        <v>1.37E-2</v>
       </c>
       <c r="J6">
         <v>3199</v>
       </c>
       <c r="K6">
-        <v>0.03199</v>
+        <v>3.1989999999999998E-2</v>
       </c>
       <c r="L6">
         <v>3041</v>
       </c>
       <c r="M6">
-        <v>0.03041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.041E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -688,34 +743,34 @@
         <v>0.3</v>
       </c>
       <c r="E7">
-        <v>0.9315</v>
+        <v>0.93149999999999999</v>
       </c>
       <c r="F7">
         <v>6850</v>
       </c>
       <c r="G7">
-        <v>0.06850000000000001</v>
+        <v>6.8500000000000005E-2</v>
       </c>
       <c r="H7">
         <v>1662</v>
       </c>
       <c r="I7">
-        <v>0.01662</v>
+        <v>1.6619999999999999E-2</v>
       </c>
       <c r="J7">
         <v>3539</v>
       </c>
       <c r="K7">
-        <v>0.03539</v>
+        <v>3.5389999999999998E-2</v>
       </c>
       <c r="L7">
         <v>3406</v>
       </c>
       <c r="M7">
-        <v>0.03406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.406E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -729,34 +784,34 @@
         <v>0.3</v>
       </c>
       <c r="E8">
-        <v>0.92928</v>
+        <v>0.92927999999999999</v>
       </c>
       <c r="F8">
         <v>7072</v>
       </c>
       <c r="G8">
-        <v>0.07072000000000001</v>
+        <v>7.0720000000000005E-2</v>
       </c>
       <c r="H8">
         <v>1758</v>
       </c>
       <c r="I8">
-        <v>0.01758</v>
+        <v>1.7579999999999998E-2</v>
       </c>
       <c r="J8">
         <v>3651</v>
       </c>
       <c r="K8">
-        <v>0.03651</v>
+        <v>3.6510000000000001E-2</v>
       </c>
       <c r="L8">
         <v>3526</v>
       </c>
       <c r="M8">
-        <v>0.03526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3.526E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -770,34 +825,34 @@
         <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0.94471</v>
+        <v>0.94471000000000005</v>
       </c>
       <c r="F9">
         <v>5529</v>
       </c>
       <c r="G9">
-        <v>0.05529</v>
+        <v>5.5289999999999999E-2</v>
       </c>
       <c r="H9">
         <v>1368</v>
       </c>
       <c r="I9">
-        <v>0.01368</v>
+        <v>1.3679999999999999E-2</v>
       </c>
       <c r="J9">
         <v>2850</v>
       </c>
       <c r="K9">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="L9">
         <v>2780</v>
       </c>
       <c r="M9">
-        <v>0.0278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -811,34 +866,34 @@
         <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.9221200000000001</v>
+        <v>0.92212000000000005</v>
       </c>
       <c r="F10">
         <v>7788</v>
       </c>
       <c r="G10">
-        <v>0.07788</v>
+        <v>7.7880000000000005E-2</v>
       </c>
       <c r="H10">
         <v>2534</v>
       </c>
       <c r="I10">
-        <v>0.02534</v>
+        <v>2.5340000000000001E-2</v>
       </c>
       <c r="J10">
         <v>3993</v>
       </c>
       <c r="K10">
-        <v>0.03993</v>
+        <v>3.993E-2</v>
       </c>
       <c r="L10">
         <v>3934</v>
       </c>
       <c r="M10">
-        <v>0.03934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3.934E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -852,34 +907,34 @@
         <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.90717</v>
+        <v>0.90717000000000003</v>
       </c>
       <c r="F11">
         <v>9283</v>
       </c>
       <c r="G11">
-        <v>0.09283</v>
+        <v>9.2829999999999996E-2</v>
       </c>
       <c r="H11">
         <v>2731</v>
       </c>
       <c r="I11">
-        <v>0.02731</v>
+        <v>2.7310000000000001E-2</v>
       </c>
       <c r="J11">
         <v>4775</v>
       </c>
       <c r="K11">
-        <v>0.04775</v>
+        <v>4.7750000000000001E-2</v>
       </c>
       <c r="L11">
         <v>4739</v>
       </c>
       <c r="M11">
-        <v>0.04739</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4.7390000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -893,34 +948,34 @@
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.95126</v>
+        <v>0.95125999999999999</v>
       </c>
       <c r="F12">
         <v>4874</v>
       </c>
       <c r="G12">
-        <v>0.04874</v>
+        <v>4.8739999999999999E-2</v>
       </c>
       <c r="H12">
         <v>1011</v>
       </c>
       <c r="I12">
-        <v>0.01011</v>
+        <v>1.0109999999999999E-2</v>
       </c>
       <c r="J12">
         <v>2524</v>
       </c>
       <c r="K12">
-        <v>0.02524</v>
+        <v>2.5239999999999999E-2</v>
       </c>
       <c r="L12">
         <v>2460</v>
       </c>
       <c r="M12">
-        <v>0.0246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.46E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -934,34 +989,38 @@
         <v>0.15</v>
       </c>
       <c r="E13">
-        <v>0.94604</v>
+        <v>0.94603999999999999</v>
       </c>
       <c r="F13">
         <v>5396</v>
       </c>
       <c r="G13">
-        <v>0.05396</v>
+        <v>5.3960000000000001E-2</v>
       </c>
       <c r="H13">
         <v>1233</v>
       </c>
       <c r="I13">
-        <v>0.01233</v>
+        <v>1.2330000000000001E-2</v>
       </c>
       <c r="J13">
         <v>2601</v>
       </c>
       <c r="K13">
-        <v>0.02601</v>
+        <v>2.6009999999999998E-2</v>
       </c>
       <c r="L13">
         <v>2509</v>
       </c>
       <c r="M13">
-        <v>0.02509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.5090000000000001E-2</v>
+      </c>
+      <c r="N13">
+        <f>E13*100</f>
+        <v>94.603999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -975,34 +1034,38 @@
         <v>0.15</v>
       </c>
       <c r="E14">
-        <v>0.94515</v>
+        <v>0.94515000000000005</v>
       </c>
       <c r="F14">
         <v>5485</v>
       </c>
       <c r="G14">
-        <v>0.05485</v>
+        <v>5.4850000000000003E-2</v>
       </c>
       <c r="H14">
         <v>1222</v>
       </c>
       <c r="I14">
-        <v>0.01222</v>
+        <v>1.222E-2</v>
       </c>
       <c r="J14">
         <v>2647</v>
       </c>
       <c r="K14">
-        <v>0.02647</v>
+        <v>2.647E-2</v>
       </c>
       <c r="L14">
         <v>2557</v>
       </c>
       <c r="M14">
-        <v>0.02557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2.5569999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ref="N14:N36" si="0">E14*100</f>
+        <v>94.515000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1022,28 +1085,32 @@
         <v>5467</v>
       </c>
       <c r="G15">
-        <v>0.05467</v>
+        <v>5.4670000000000003E-2</v>
       </c>
       <c r="H15">
         <v>1250</v>
       </c>
       <c r="I15">
-        <v>0.0125</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="J15">
         <v>2625</v>
       </c>
       <c r="K15">
-        <v>0.02625</v>
+        <v>2.6249999999999999E-2</v>
       </c>
       <c r="L15">
         <v>2543</v>
       </c>
       <c r="M15">
-        <v>0.02543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2.5430000000000001E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>94.533000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1057,34 +1124,38 @@
         <v>0.15</v>
       </c>
       <c r="E16">
-        <v>0.94765</v>
+        <v>0.94764999999999999</v>
       </c>
       <c r="F16">
         <v>5235</v>
       </c>
       <c r="G16">
-        <v>0.05235</v>
+        <v>5.2350000000000001E-2</v>
       </c>
       <c r="H16">
         <v>1187</v>
       </c>
       <c r="I16">
-        <v>0.01187</v>
+        <v>1.187E-2</v>
       </c>
       <c r="J16">
         <v>2529</v>
       </c>
       <c r="K16">
-        <v>0.02529</v>
+        <v>2.529E-2</v>
       </c>
       <c r="L16">
         <v>2424</v>
       </c>
       <c r="M16">
-        <v>0.02424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2.4240000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>94.765000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1098,34 +1169,38 @@
         <v>0.3</v>
       </c>
       <c r="E17">
-        <v>0.95329</v>
+        <v>0.95328999999999997</v>
       </c>
       <c r="F17">
         <v>4671</v>
       </c>
       <c r="G17">
-        <v>0.04671</v>
+        <v>4.6710000000000002E-2</v>
       </c>
       <c r="H17">
         <v>949</v>
       </c>
       <c r="I17">
-        <v>0.00949</v>
+        <v>9.4900000000000002E-3</v>
       </c>
       <c r="J17">
         <v>2361</v>
       </c>
       <c r="K17">
-        <v>0.02361</v>
+        <v>2.3609999999999999E-2</v>
       </c>
       <c r="L17">
         <v>2314</v>
       </c>
       <c r="M17">
-        <v>0.02314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2.3140000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>95.328999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1139,34 +1214,38 @@
         <v>0.3</v>
       </c>
       <c r="E18">
-        <v>0.9496599999999999</v>
+        <v>0.94965999999999995</v>
       </c>
       <c r="F18">
         <v>5034</v>
       </c>
       <c r="G18">
-        <v>0.05034</v>
+        <v>5.0340000000000003E-2</v>
       </c>
       <c r="H18">
         <v>1017</v>
       </c>
       <c r="I18">
-        <v>0.01017</v>
+        <v>1.017E-2</v>
       </c>
       <c r="J18">
         <v>2539</v>
       </c>
       <c r="K18">
-        <v>0.02539</v>
+        <v>2.5389999999999999E-2</v>
       </c>
       <c r="L18">
         <v>2529</v>
       </c>
       <c r="M18">
-        <v>0.02529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.529E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>94.965999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1180,34 +1259,38 @@
         <v>0.3</v>
       </c>
       <c r="E19">
-        <v>0.94609</v>
+        <v>0.94608999999999999</v>
       </c>
       <c r="F19">
         <v>5391</v>
       </c>
       <c r="G19">
-        <v>0.05391</v>
+        <v>5.391E-2</v>
       </c>
       <c r="H19">
         <v>1148</v>
       </c>
       <c r="I19">
-        <v>0.01148</v>
+        <v>1.1480000000000001E-2</v>
       </c>
       <c r="J19">
         <v>2735</v>
       </c>
       <c r="K19">
-        <v>0.02735</v>
+        <v>2.7349999999999999E-2</v>
       </c>
       <c r="L19">
         <v>2686</v>
       </c>
       <c r="M19">
-        <v>0.02686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2.6859999999999998E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>94.608999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1221,34 +1304,38 @@
         <v>0.3</v>
       </c>
       <c r="E20">
-        <v>0.9510999999999999</v>
+        <v>0.95109999999999995</v>
       </c>
       <c r="F20">
         <v>4890</v>
       </c>
       <c r="G20">
-        <v>0.0489</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="H20">
         <v>1057</v>
       </c>
       <c r="I20">
-        <v>0.01057</v>
+        <v>1.057E-2</v>
       </c>
       <c r="J20">
         <v>2478</v>
       </c>
       <c r="K20">
-        <v>0.02478</v>
+        <v>2.478E-2</v>
       </c>
       <c r="L20">
         <v>2433</v>
       </c>
       <c r="M20">
-        <v>0.02433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2.4330000000000001E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>95.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1262,34 +1349,38 @@
         <v>0.5</v>
       </c>
       <c r="E21">
-        <v>0.9448</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="F21">
         <v>5520</v>
       </c>
       <c r="G21">
-        <v>0.0552</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="H21">
         <v>1398</v>
       </c>
       <c r="I21">
-        <v>0.01398</v>
+        <v>1.3979999999999999E-2</v>
       </c>
       <c r="J21">
         <v>2987</v>
       </c>
       <c r="K21">
-        <v>0.02987</v>
+        <v>2.9870000000000001E-2</v>
       </c>
       <c r="L21">
         <v>3030</v>
       </c>
       <c r="M21">
-        <v>0.0303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>94.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1303,34 +1394,38 @@
         <v>0.5</v>
       </c>
       <c r="E22">
-        <v>0.93285</v>
+        <v>0.93284999999999996</v>
       </c>
       <c r="F22">
         <v>6668</v>
       </c>
       <c r="G22">
-        <v>0.06668</v>
+        <v>6.6680000000000003E-2</v>
       </c>
       <c r="H22">
         <v>2703</v>
       </c>
       <c r="I22">
-        <v>0.02703</v>
+        <v>2.7029999999999998E-2</v>
       </c>
       <c r="J22">
         <v>3597</v>
       </c>
       <c r="K22">
-        <v>0.03597</v>
+        <v>3.5970000000000002E-2</v>
       </c>
       <c r="L22">
         <v>3562</v>
       </c>
       <c r="M22">
-        <v>0.03562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>3.5619999999999999E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>93.284999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1344,36 +1439,40 @@
         <v>0.5</v>
       </c>
       <c r="E23">
-        <v>0.94768</v>
+        <v>0.94767999999999997</v>
       </c>
       <c r="F23">
         <v>5232</v>
       </c>
       <c r="G23">
-        <v>0.05232</v>
+        <v>5.2319999999999998E-2</v>
       </c>
       <c r="H23">
         <v>942</v>
       </c>
       <c r="I23">
-        <v>0.00942</v>
+        <v>9.4199999999999996E-3</v>
       </c>
       <c r="J23">
         <v>2936</v>
       </c>
       <c r="K23">
-        <v>0.02936</v>
+        <v>2.9360000000000001E-2</v>
       </c>
       <c r="L23">
         <v>2892</v>
       </c>
       <c r="M23">
-        <v>0.02892</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2.8920000000000001E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>94.768000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>100000</v>
@@ -1385,77 +1484,85 @@
         <v>0.5</v>
       </c>
       <c r="E24">
-        <v>0.94768</v>
+        <v>0.95526999999999995</v>
       </c>
       <c r="F24">
-        <v>5232</v>
+        <v>4473</v>
       </c>
       <c r="G24">
-        <v>0.05232</v>
+        <v>4.4729999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>942</v>
+        <v>884</v>
       </c>
       <c r="I24">
-        <v>0.00942</v>
+        <v>8.8400000000000006E-3</v>
       </c>
       <c r="J24">
-        <v>2936</v>
+        <v>2425</v>
       </c>
       <c r="K24">
-        <v>0.02936</v>
+        <v>2.4250000000000001E-2</v>
       </c>
       <c r="L24">
-        <v>2892</v>
+        <v>2474</v>
       </c>
       <c r="M24">
-        <v>0.02892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2.4740000000000002E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>95.527000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>100000</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="E25">
-        <v>0.95527</v>
+        <v>0.94589000000000001</v>
       </c>
       <c r="F25">
-        <v>4473</v>
+        <v>5411</v>
       </c>
       <c r="G25">
-        <v>0.04473</v>
+        <v>5.4109999999999998E-2</v>
       </c>
       <c r="H25">
-        <v>884</v>
+        <v>1215</v>
       </c>
       <c r="I25">
-        <v>0.008840000000000001</v>
+        <v>1.2149999999999999E-2</v>
       </c>
       <c r="J25">
-        <v>2425</v>
+        <v>2678</v>
       </c>
       <c r="K25">
-        <v>0.02425</v>
+        <v>2.6780000000000002E-2</v>
       </c>
       <c r="L25">
-        <v>2474</v>
+        <v>2601</v>
       </c>
       <c r="M25">
-        <v>0.02474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>94.588999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
         <v>100000</v>
@@ -1467,36 +1574,40 @@
         <v>0.15</v>
       </c>
       <c r="E26">
-        <v>0.94589</v>
+        <v>0.94501999999999997</v>
       </c>
       <c r="F26">
-        <v>5411</v>
+        <v>5498</v>
       </c>
       <c r="G26">
-        <v>0.05411</v>
+        <v>5.4980000000000001E-2</v>
       </c>
       <c r="H26">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="I26">
-        <v>0.01215</v>
+        <v>1.2290000000000001E-2</v>
       </c>
       <c r="J26">
-        <v>2678</v>
+        <v>2708</v>
       </c>
       <c r="K26">
-        <v>0.02678</v>
+        <v>2.708E-2</v>
       </c>
       <c r="L26">
-        <v>2601</v>
+        <v>2675</v>
       </c>
       <c r="M26">
-        <v>0.02601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2.6749999999999999E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>94.501999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>100000</v>
@@ -1508,36 +1619,40 @@
         <v>0.15</v>
       </c>
       <c r="E27">
-        <v>0.94502</v>
+        <v>0.94542000000000004</v>
       </c>
       <c r="F27">
-        <v>5498</v>
+        <v>5458</v>
       </c>
       <c r="G27">
-        <v>0.05498</v>
+        <v>5.4579999999999997E-2</v>
       </c>
       <c r="H27">
         <v>1229</v>
       </c>
       <c r="I27">
-        <v>0.01229</v>
+        <v>1.2290000000000001E-2</v>
       </c>
       <c r="J27">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="K27">
-        <v>0.02708</v>
+        <v>2.7119999999999998E-2</v>
       </c>
       <c r="L27">
-        <v>2675</v>
+        <v>2634</v>
       </c>
       <c r="M27">
-        <v>0.02675</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2.6339999999999999E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>94.542000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>100000</v>
@@ -1549,36 +1664,40 @@
         <v>0.15</v>
       </c>
       <c r="E28">
-        <v>0.94542</v>
+        <v>0.94904999999999995</v>
       </c>
       <c r="F28">
-        <v>5458</v>
+        <v>5095</v>
       </c>
       <c r="G28">
-        <v>0.05458</v>
+        <v>5.0950000000000002E-2</v>
       </c>
       <c r="H28">
-        <v>1229</v>
+        <v>1120</v>
       </c>
       <c r="I28">
-        <v>0.01229</v>
+        <v>1.12E-2</v>
       </c>
       <c r="J28">
-        <v>2712</v>
+        <v>2513</v>
       </c>
       <c r="K28">
-        <v>0.02712</v>
+        <v>2.513E-2</v>
       </c>
       <c r="L28">
-        <v>2634</v>
+        <v>2468</v>
       </c>
       <c r="M28">
-        <v>0.02634</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2.4680000000000001E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>94.905000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>100000</v>
@@ -1587,39 +1706,43 @@
         <v>25</v>
       </c>
       <c r="D29">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E29">
-        <v>0.9490499999999999</v>
+        <v>0.94913000000000003</v>
       </c>
       <c r="F29">
-        <v>5095</v>
+        <v>5087</v>
       </c>
       <c r="G29">
-        <v>0.05095</v>
+        <v>5.0869999999999999E-2</v>
       </c>
       <c r="H29">
-        <v>1120</v>
+        <v>1043</v>
       </c>
       <c r="I29">
-        <v>0.0112</v>
+        <v>1.043E-2</v>
       </c>
       <c r="J29">
-        <v>2513</v>
+        <v>2604</v>
       </c>
       <c r="K29">
-        <v>0.02513</v>
+        <v>2.6040000000000001E-2</v>
       </c>
       <c r="L29">
-        <v>2468</v>
+        <v>2533</v>
       </c>
       <c r="M29">
-        <v>0.02468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2.5329999999999998E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>94.912999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>100000</v>
@@ -1631,36 +1754,40 @@
         <v>0.3</v>
       </c>
       <c r="E30">
-        <v>0.94913</v>
+        <v>0.94306000000000001</v>
       </c>
       <c r="F30">
-        <v>5087</v>
+        <v>5694</v>
       </c>
       <c r="G30">
-        <v>0.05087</v>
+        <v>5.6939999999999998E-2</v>
       </c>
       <c r="H30">
-        <v>1043</v>
+        <v>1219</v>
       </c>
       <c r="I30">
-        <v>0.01043</v>
+        <v>1.2189999999999999E-2</v>
       </c>
       <c r="J30">
-        <v>2604</v>
+        <v>2921</v>
       </c>
       <c r="K30">
-        <v>0.02604</v>
+        <v>2.921E-2</v>
       </c>
       <c r="L30">
-        <v>2533</v>
+        <v>2858</v>
       </c>
       <c r="M30">
-        <v>0.02533</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2.8580000000000001E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>94.305999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>100000</v>
@@ -1672,36 +1799,40 @@
         <v>0.3</v>
       </c>
       <c r="E31">
-        <v>0.94306</v>
+        <v>0.94096000000000002</v>
       </c>
       <c r="F31">
-        <v>5694</v>
+        <v>5904</v>
       </c>
       <c r="G31">
-        <v>0.05694</v>
+        <v>5.9040000000000002E-2</v>
       </c>
       <c r="H31">
-        <v>1219</v>
+        <v>1309</v>
       </c>
       <c r="I31">
-        <v>0.01219</v>
+        <v>1.3089999999999999E-2</v>
       </c>
       <c r="J31">
-        <v>2921</v>
+        <v>3040</v>
       </c>
       <c r="K31">
-        <v>0.02921</v>
+        <v>3.04E-2</v>
       </c>
       <c r="L31">
-        <v>2858</v>
+        <v>2938</v>
       </c>
       <c r="M31">
-        <v>0.02858</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2.938E-2</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>94.096000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>100000</v>
@@ -1713,36 +1844,40 @@
         <v>0.3</v>
       </c>
       <c r="E32">
-        <v>0.94096</v>
+        <v>0.95111999999999997</v>
       </c>
       <c r="F32">
-        <v>5904</v>
+        <v>4888</v>
       </c>
       <c r="G32">
-        <v>0.05904</v>
+        <v>4.888E-2</v>
       </c>
       <c r="H32">
-        <v>1309</v>
+        <v>986</v>
       </c>
       <c r="I32">
-        <v>0.01309</v>
+        <v>9.8600000000000007E-3</v>
       </c>
       <c r="J32">
-        <v>3040</v>
+        <v>2515</v>
       </c>
       <c r="K32">
-        <v>0.0304</v>
+        <v>2.5149999999999999E-2</v>
       </c>
       <c r="L32">
-        <v>2938</v>
+        <v>2429</v>
       </c>
       <c r="M32">
-        <v>0.02938</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2.4289999999999999E-2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>95.111999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>100000</v>
@@ -1751,39 +1886,43 @@
         <v>25</v>
       </c>
       <c r="D33">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>0.95112</v>
+        <v>0.94376000000000004</v>
       </c>
       <c r="F33">
-        <v>4888</v>
+        <v>5624</v>
       </c>
       <c r="G33">
-        <v>0.04888</v>
+        <v>5.6239999999999998E-2</v>
       </c>
       <c r="H33">
-        <v>986</v>
+        <v>1736</v>
       </c>
       <c r="I33">
-        <v>0.009860000000000001</v>
+        <v>1.736E-2</v>
       </c>
       <c r="J33">
-        <v>2515</v>
+        <v>2933</v>
       </c>
       <c r="K33">
-        <v>0.02515</v>
+        <v>2.9329999999999998E-2</v>
       </c>
       <c r="L33">
-        <v>2429</v>
+        <v>2988</v>
       </c>
       <c r="M33">
-        <v>0.02429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2.988E-2</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>94.376000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>100000</v>
@@ -1795,36 +1934,40 @@
         <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.94376</v>
+        <v>0.92945</v>
       </c>
       <c r="F34">
-        <v>5624</v>
+        <v>7039</v>
       </c>
       <c r="G34">
-        <v>0.05624</v>
+        <v>7.0389999999999994E-2</v>
       </c>
       <c r="H34">
-        <v>1736</v>
+        <v>2715</v>
       </c>
       <c r="I34">
-        <v>0.01736</v>
+        <v>2.7150000000000001E-2</v>
       </c>
       <c r="J34">
-        <v>2933</v>
+        <v>3671</v>
       </c>
       <c r="K34">
-        <v>0.02933</v>
+        <v>3.671E-2</v>
       </c>
       <c r="L34">
-        <v>2988</v>
+        <v>3712</v>
       </c>
       <c r="M34">
-        <v>0.02988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3.712E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>92.944999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>100000</v>
@@ -1836,36 +1979,40 @@
         <v>0.5</v>
       </c>
       <c r="E35">
-        <v>0.92945</v>
+        <v>0.95404999999999995</v>
       </c>
       <c r="F35">
-        <v>7039</v>
+        <v>4595</v>
       </c>
       <c r="G35">
-        <v>0.07038999999999999</v>
+        <v>4.5949999999999998E-2</v>
       </c>
       <c r="H35">
-        <v>2715</v>
+        <v>882</v>
       </c>
       <c r="I35">
-        <v>0.02715</v>
+        <v>8.8199999999999997E-3</v>
       </c>
       <c r="J35">
-        <v>3671</v>
+        <v>2452</v>
       </c>
       <c r="K35">
-        <v>0.03671</v>
+        <v>2.452E-2</v>
       </c>
       <c r="L35">
-        <v>3712</v>
+        <v>2485</v>
       </c>
       <c r="M35">
-        <v>0.03712</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2.4850000000000001E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>95.405000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <v>100000</v>
@@ -1877,77 +2024,81 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>0.95405</v>
+        <v>0.93561000000000005</v>
       </c>
       <c r="F36">
-        <v>4595</v>
+        <v>6439</v>
       </c>
       <c r="G36">
-        <v>0.04595</v>
+        <v>6.4390000000000003E-2</v>
       </c>
       <c r="H36">
-        <v>882</v>
+        <v>1400</v>
       </c>
       <c r="I36">
-        <v>0.00882</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J36">
-        <v>2452</v>
+        <v>3488</v>
       </c>
       <c r="K36">
-        <v>0.02452</v>
+        <v>3.4880000000000001E-2</v>
       </c>
       <c r="L36">
-        <v>2485</v>
+        <v>3452</v>
       </c>
       <c r="M36">
-        <v>0.02485</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3.4520000000000002E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>93.561000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>100000</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="E37">
-        <v>0.9356100000000001</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F37">
-        <v>6439</v>
+        <v>520</v>
       </c>
       <c r="G37">
-        <v>0.06439</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="H37">
-        <v>1400</v>
+        <v>295</v>
       </c>
       <c r="I37">
-        <v>0.014</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="J37">
-        <v>3488</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0.03488</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L37">
-        <v>3452</v>
+        <v>362</v>
       </c>
       <c r="M37">
-        <v>0.03452</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3.62E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>100000</v>
@@ -1959,36 +2110,36 @@
         <v>0.15</v>
       </c>
       <c r="E38">
-        <v>0.00153</v>
+        <v>1.5399999999999999E-3</v>
       </c>
       <c r="F38">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G38">
-        <v>0.0052</v>
+        <v>5.1900000000000002E-3</v>
       </c>
       <c r="H38">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I38">
-        <v>0.00295</v>
+        <v>3.0100000000000001E-3</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M38">
-        <v>0.00362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3.65E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>100000</v>
@@ -2000,36 +2151,36 @@
         <v>0.15</v>
       </c>
       <c r="E39">
-        <v>0.00154</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F39">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G39">
-        <v>0.00519</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="H39">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I39">
-        <v>0.00301</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L39">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M39">
-        <v>0.00365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3.62E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>100000</v>
@@ -2041,36 +2192,36 @@
         <v>0.15</v>
       </c>
       <c r="E40">
-        <v>0.00153</v>
+        <v>1.5299999999999999E-3</v>
       </c>
       <c r="F40">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G40">
-        <v>0.0052</v>
+        <v>5.1799999999999997E-3</v>
       </c>
       <c r="H40">
         <v>295</v>
       </c>
       <c r="I40">
-        <v>0.00295</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>1E-05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="L40">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M40">
-        <v>0.00362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>100000</v>
@@ -2079,39 +2230,39 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E41">
-        <v>0.00153</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F41">
-        <v>518</v>
+        <v>127</v>
       </c>
       <c r="G41">
-        <v>0.00518</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="H41">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="I41">
-        <v>0.00295</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1E-05</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>360</v>
+        <v>92</v>
       </c>
       <c r="M41">
-        <v>0.0036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>9.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>100000</v>
@@ -2123,19 +2274,19 @@
         <v>0.3</v>
       </c>
       <c r="E42">
-        <v>0.00034</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F42">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42">
-        <v>0.00127</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="H42">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I42">
-        <v>0.00079</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2144,15 +2295,15 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M42">
-        <v>0.00092</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>8.8000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>100000</v>
@@ -2164,19 +2315,19 @@
         <v>0.3</v>
       </c>
       <c r="E43">
-        <v>0.00035</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="F43">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G43">
-        <v>0.00126</v>
+        <v>1.2700000000000001E-3</v>
       </c>
       <c r="H43">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I43">
-        <v>0.0008</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2185,15 +2336,15 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M43">
-        <v>0.00088</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>9.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>100000</v>
@@ -2202,22 +2353,22 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E44">
-        <v>0.00034</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="F44">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="G44">
-        <v>0.00127</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H44">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="I44">
-        <v>0.00079</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2226,15 +2377,15 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="M44">
-        <v>0.00092</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>100000</v>
@@ -2246,19 +2397,19 @@
         <v>0.5</v>
       </c>
       <c r="E45">
-        <v>0.00016</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G45">
-        <v>0.0005</v>
+        <v>5.1000000000000004E-4</v>
       </c>
       <c r="H45">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I45">
-        <v>0.00032</v>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2267,15 +2418,15 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>0.00036</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>100000</v>
@@ -2287,19 +2438,19 @@
         <v>0.5</v>
       </c>
       <c r="E46">
-        <v>0.00015</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="F46">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>0.00051</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H46">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I46">
-        <v>0.00038</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2308,15 +2459,15 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>100000</v>
@@ -2328,19 +2479,19 @@
         <v>0.5</v>
       </c>
       <c r="E47">
-        <v>0.00016</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="F47">
         <v>50</v>
       </c>
       <c r="G47">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H47">
         <v>32</v>
       </c>
       <c r="I47">
-        <v>0.00032</v>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2352,53 +2503,57 @@
         <v>36</v>
       </c>
       <c r="M47">
-        <v>0.00036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>3.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>100000</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="E48">
-        <v>0.00016</v>
+        <v>0.94494999999999996</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>5505</v>
       </c>
       <c r="G48">
-        <v>0.0005</v>
+        <v>5.5050000000000002E-2</v>
       </c>
       <c r="H48">
-        <v>32</v>
+        <v>1172</v>
       </c>
       <c r="I48">
-        <v>0.00032</v>
+        <v>1.172E-2</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>2790</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2.7900000000000001E-2</v>
       </c>
       <c r="L48">
-        <v>36</v>
+        <v>2716</v>
       </c>
       <c r="M48">
-        <v>0.00036</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2.716E-2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:N59" si="1">E48*100</f>
+        <v>94.49499999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>100000</v>
@@ -2410,36 +2565,40 @@
         <v>0.15</v>
       </c>
       <c r="E49">
-        <v>0.94495</v>
+        <v>0.94440999999999997</v>
       </c>
       <c r="F49">
-        <v>5505</v>
+        <v>5559</v>
       </c>
       <c r="G49">
-        <v>0.05505</v>
+        <v>5.5590000000000001E-2</v>
       </c>
       <c r="H49">
-        <v>1172</v>
+        <v>1213</v>
       </c>
       <c r="I49">
-        <v>0.01172</v>
+        <v>1.213E-2</v>
       </c>
       <c r="J49">
-        <v>2790</v>
+        <v>2830</v>
       </c>
       <c r="K49">
-        <v>0.0279</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="L49">
-        <v>2716</v>
+        <v>2731</v>
       </c>
       <c r="M49">
-        <v>0.02716</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2.7310000000000001E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="1"/>
+        <v>94.441000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>100000</v>
@@ -2451,36 +2610,40 @@
         <v>0.15</v>
       </c>
       <c r="E50">
-        <v>0.94441</v>
+        <v>0.94425000000000003</v>
       </c>
       <c r="F50">
-        <v>5559</v>
+        <v>5575</v>
       </c>
       <c r="G50">
-        <v>0.05559</v>
+        <v>5.5750000000000001E-2</v>
       </c>
       <c r="H50">
-        <v>1213</v>
+        <v>1192</v>
       </c>
       <c r="I50">
-        <v>0.01213</v>
+        <v>1.192E-2</v>
       </c>
       <c r="J50">
-        <v>2830</v>
+        <v>2816</v>
       </c>
       <c r="K50">
-        <v>0.0283</v>
+        <v>2.8160000000000001E-2</v>
       </c>
       <c r="L50">
-        <v>2731</v>
+        <v>2753</v>
       </c>
       <c r="M50">
-        <v>0.02731</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2.7529999999999999E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="1"/>
+        <v>94.424999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>100000</v>
@@ -2492,36 +2655,40 @@
         <v>0.15</v>
       </c>
       <c r="E51">
-        <v>0.94425</v>
+        <v>0.95042000000000004</v>
       </c>
       <c r="F51">
-        <v>5575</v>
+        <v>4958</v>
       </c>
       <c r="G51">
-        <v>0.05575</v>
+        <v>4.9579999999999999E-2</v>
       </c>
       <c r="H51">
-        <v>1192</v>
+        <v>1018</v>
       </c>
       <c r="I51">
-        <v>0.01192</v>
+        <v>1.018E-2</v>
       </c>
       <c r="J51">
-        <v>2816</v>
+        <v>2535</v>
       </c>
       <c r="K51">
-        <v>0.02816</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="L51">
-        <v>2753</v>
+        <v>2432</v>
       </c>
       <c r="M51">
-        <v>0.02753</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2.4320000000000001E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="1"/>
+        <v>95.042000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>100000</v>
@@ -2530,39 +2697,43 @@
         <v>50</v>
       </c>
       <c r="D52">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E52">
-        <v>0.95042</v>
+        <v>0.94305000000000005</v>
       </c>
       <c r="F52">
-        <v>4958</v>
+        <v>5695</v>
       </c>
       <c r="G52">
-        <v>0.04958</v>
+        <v>5.6950000000000001E-2</v>
       </c>
       <c r="H52">
-        <v>1018</v>
+        <v>1187</v>
       </c>
       <c r="I52">
-        <v>0.01018</v>
+        <v>1.187E-2</v>
       </c>
       <c r="J52">
-        <v>2535</v>
+        <v>2914</v>
       </c>
       <c r="K52">
-        <v>0.02535</v>
+        <v>2.9139999999999999E-2</v>
       </c>
       <c r="L52">
-        <v>2432</v>
+        <v>2886</v>
       </c>
       <c r="M52">
-        <v>0.02432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2.886E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>94.305000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>100000</v>
@@ -2574,36 +2745,40 @@
         <v>0.3</v>
       </c>
       <c r="E53">
-        <v>0.9430500000000001</v>
+        <v>0.93632000000000004</v>
       </c>
       <c r="F53">
-        <v>5695</v>
+        <v>6368</v>
       </c>
       <c r="G53">
-        <v>0.05695</v>
+        <v>6.368E-2</v>
       </c>
       <c r="H53">
-        <v>1187</v>
+        <v>1468</v>
       </c>
       <c r="I53">
-        <v>0.01187</v>
+        <v>1.468E-2</v>
       </c>
       <c r="J53">
-        <v>2914</v>
+        <v>3304</v>
       </c>
       <c r="K53">
-        <v>0.02914</v>
+        <v>3.304E-2</v>
       </c>
       <c r="L53">
-        <v>2886</v>
+        <v>3180</v>
       </c>
       <c r="M53">
-        <v>0.02886</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="1"/>
+        <v>93.632000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54">
         <v>100000</v>
@@ -2615,36 +2790,40 @@
         <v>0.3</v>
       </c>
       <c r="E54">
-        <v>0.93632</v>
+        <v>0.93335000000000001</v>
       </c>
       <c r="F54">
-        <v>6368</v>
+        <v>6665</v>
       </c>
       <c r="G54">
-        <v>0.06368</v>
+        <v>6.6650000000000001E-2</v>
       </c>
       <c r="H54">
-        <v>1468</v>
+        <v>1515</v>
       </c>
       <c r="I54">
-        <v>0.01468</v>
+        <v>1.515E-2</v>
       </c>
       <c r="J54">
-        <v>3304</v>
+        <v>3389</v>
       </c>
       <c r="K54">
-        <v>0.03304</v>
+        <v>3.3890000000000003E-2</v>
       </c>
       <c r="L54">
-        <v>3180</v>
+        <v>3377</v>
       </c>
       <c r="M54">
-        <v>0.0318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3.3770000000000001E-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="1"/>
+        <v>93.335000000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <v>100000</v>
@@ -2656,36 +2835,40 @@
         <v>0.3</v>
       </c>
       <c r="E55">
-        <v>0.93335</v>
+        <v>0.95138999999999996</v>
       </c>
       <c r="F55">
-        <v>6665</v>
+        <v>4861</v>
       </c>
       <c r="G55">
-        <v>0.06665</v>
+        <v>4.861E-2</v>
       </c>
       <c r="H55">
-        <v>1515</v>
+        <v>989</v>
       </c>
       <c r="I55">
-        <v>0.01515</v>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="J55">
-        <v>3389</v>
+        <v>2526</v>
       </c>
       <c r="K55">
-        <v>0.03389</v>
+        <v>2.5260000000000001E-2</v>
       </c>
       <c r="L55">
-        <v>3377</v>
+        <v>2421</v>
       </c>
       <c r="M55">
-        <v>0.03377</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2.4209999999999999E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="1"/>
+        <v>95.138999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>100000</v>
@@ -2694,39 +2877,43 @@
         <v>50</v>
       </c>
       <c r="D56">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E56">
-        <v>0.95139</v>
+        <v>0.94532000000000005</v>
       </c>
       <c r="F56">
-        <v>4861</v>
+        <v>5468</v>
       </c>
       <c r="G56">
-        <v>0.04861</v>
+        <v>5.4679999999999999E-2</v>
       </c>
       <c r="H56">
-        <v>989</v>
+        <v>1526</v>
       </c>
       <c r="I56">
-        <v>0.009889999999999999</v>
+        <v>1.5259999999999999E-2</v>
       </c>
       <c r="J56">
-        <v>2526</v>
+        <v>2847</v>
       </c>
       <c r="K56">
-        <v>0.02526</v>
+        <v>2.8469999999999999E-2</v>
       </c>
       <c r="L56">
-        <v>2421</v>
+        <v>2837</v>
       </c>
       <c r="M56">
-        <v>0.02421</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2.8369999999999999E-2</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>94.532000000000011</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57">
         <v>100000</v>
@@ -2738,36 +2925,40 @@
         <v>0.5</v>
       </c>
       <c r="E57">
-        <v>0.94532</v>
+        <v>0.92601</v>
       </c>
       <c r="F57">
-        <v>5468</v>
+        <v>7398</v>
       </c>
       <c r="G57">
-        <v>0.05468</v>
+        <v>7.3980000000000004E-2</v>
       </c>
       <c r="H57">
-        <v>1526</v>
+        <v>2653</v>
       </c>
       <c r="I57">
-        <v>0.01526</v>
+        <v>2.6530000000000001E-2</v>
       </c>
       <c r="J57">
-        <v>2847</v>
+        <v>3825</v>
       </c>
       <c r="K57">
-        <v>0.02847</v>
+        <v>3.8249999999999999E-2</v>
       </c>
       <c r="L57">
-        <v>2837</v>
+        <v>3808</v>
       </c>
       <c r="M57">
-        <v>0.02837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3.8080000000000003E-2</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="1"/>
+        <v>92.600999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58">
         <v>100000</v>
@@ -2779,36 +2970,40 @@
         <v>0.5</v>
       </c>
       <c r="E58">
-        <v>0.92601</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F58">
-        <v>7398</v>
+        <v>8100</v>
       </c>
       <c r="G58">
-        <v>0.07398</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H58">
-        <v>2653</v>
+        <v>2067</v>
       </c>
       <c r="I58">
-        <v>0.02653</v>
+        <v>2.0670000000000001E-2</v>
       </c>
       <c r="J58">
-        <v>3825</v>
+        <v>4191</v>
       </c>
       <c r="K58">
-        <v>0.03825</v>
+        <v>4.1910000000000003E-2</v>
       </c>
       <c r="L58">
-        <v>3808</v>
+        <v>4273</v>
       </c>
       <c r="M58">
-        <v>0.03808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>4.2729999999999997E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="1"/>
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59">
         <v>100000</v>
@@ -2820,75 +3015,47 @@
         <v>0.5</v>
       </c>
       <c r="E59">
-        <v>0.919</v>
+        <v>0.95277999999999996</v>
       </c>
       <c r="F59">
-        <v>8100</v>
+        <v>4722</v>
       </c>
       <c r="G59">
-        <v>0.081</v>
+        <v>4.7219999999999998E-2</v>
       </c>
       <c r="H59">
-        <v>2067</v>
+        <v>916</v>
       </c>
       <c r="I59">
-        <v>0.02067</v>
+        <v>9.1599999999999997E-3</v>
       </c>
       <c r="J59">
-        <v>4191</v>
+        <v>2448</v>
       </c>
       <c r="K59">
-        <v>0.04191</v>
+        <v>2.4479999999999998E-2</v>
       </c>
       <c r="L59">
-        <v>4273</v>
+        <v>2464</v>
       </c>
       <c r="M59">
-        <v>0.04273</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60">
-        <v>100000</v>
-      </c>
-      <c r="C60">
-        <v>50</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-      <c r="E60">
-        <v>0.95278</v>
-      </c>
-      <c r="F60">
-        <v>4722</v>
-      </c>
-      <c r="G60">
-        <v>0.04722</v>
-      </c>
-      <c r="H60">
-        <v>916</v>
-      </c>
-      <c r="I60">
-        <v>0.00916</v>
-      </c>
-      <c r="J60">
-        <v>2448</v>
-      </c>
-      <c r="K60">
-        <v>0.02448</v>
-      </c>
-      <c r="L60">
-        <v>2464</v>
-      </c>
-      <c r="M60">
-        <v>0.02464</v>
+        <v>2.4639999999999999E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="1"/>
+        <v>95.277999999999992</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M59" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="15"/>
+        <filter val="25"/>
+        <filter val="50"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>